--- a/covid19_temp/Growth Rate vs Population.xlsx
+++ b/covid19_temp/Growth Rate vs Population.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dmitri/PycharmProjects/covid19/covid19_temp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DAC421D9-E529-3045-861A-B84CA95B2A11}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{CECCFA84-DF7E-F844-BDB4-5DBC11DE245C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11360" yWindow="2420" windowWidth="30860" windowHeight="19460"/>
   </bookViews>
@@ -957,6 +957,14 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>Top 20</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
+              <a:t> Countries, </a:t>
+            </a:r>
             <a:r>
               <a:rPr lang="en-US" b="1"/>
               <a:t>Growth Rate</a:t>
@@ -2097,16 +2105,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>622300</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4168,7 +4176,7 @@
   <dimension ref="A1:R114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N40" sqref="N40"/>
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
